--- a/static_EB2.xlsx
+++ b/static_EB2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_data\Cody\EB2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NCTU_NOT_NYCU\Personal_Project\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1068,10 +1068,10 @@
         <v>308</v>
       </c>
       <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
         <v>26</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
       </c>
       <c r="D23">
         <v>60</v>
